--- a/public/Requisition and Issue Slip.xlsx
+++ b/public/Requisition and Issue Slip.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>Appendix 63</t>
   </si>
@@ -32,13 +32,13 @@
     <t xml:space="preserve">Division : </t>
   </si>
   <si>
-    <t>AMO CM</t>
+    <t>KMD Regular</t>
   </si>
   <si>
     <t xml:space="preserve">Responsibility Center Code : </t>
   </si>
   <si>
-    <t>AMO 310200100000</t>
+    <t>KMD ISSP PuRD 200000100002</t>
   </si>
   <si>
     <t xml:space="preserve">Office : </t>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">RIS No. : </t>
   </si>
   <si>
-    <t>2021-6-00002</t>
-  </si>
-  <si>
     <t>Requisition</t>
   </si>
   <si>
@@ -83,28 +80,19 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>165-2018-096</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>DIGITAL VOICE RECORDER</t>
+    <t>pcs</t>
+  </si>
+  <si>
+    <t>as scdsfd safsdfdf dsaf</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>Fully   Serve</t>
-  </si>
-  <si>
-    <t>Acer ES1-132-C2HG Midnight Black, Intel Celeron 3350 processor/ 2GB RAM, 500GB Storage, 11.6inches Display SN NXGG2SP0078050CCA97600</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Office use</t>
+    <t>sadasdasdasdasds</t>
   </si>
   <si>
     <t>Requested by:</t>
@@ -128,31 +116,13 @@
     <t>JOULES</t>
   </si>
   <si>
-    <t>DFGFDGDF</t>
-  </si>
-  <si>
-    <t>GFDGFDG</t>
-  </si>
-  <si>
-    <t>DFGDFGDFGDFG</t>
-  </si>
-  <si>
     <t>Designation:</t>
   </si>
   <si>
-    <t>dvdgfdg</t>
-  </si>
-  <si>
-    <t>dfgfdg</t>
-  </si>
-  <si>
-    <t>dfgdfg</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>6/15/2021</t>
+    <t>12/19/2022</t>
   </si>
 </sst>
 </file>
@@ -239,14 +209,11 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="3b5998"/>
+        <fgColor rgb="FF3b5998"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -255,420 +222,420 @@
     <border/>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <right style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <right style="medium">
-        <color rgb="000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <right style="medium">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <right style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <right style="thin">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
-      </left>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
-      </left>
-      <bottom style="medium">
-        <color rgb="000000"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
     </border>
     <border>
       <right style="medium">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="ffffff"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FFffffff"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </bottom>
     </border>
     <border>
       <left style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="thin">
-        <color rgb="ffffff"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </left>
       <right style="thin">
-        <color rgb="ffffff"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FFffffff"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </left>
       <right style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="thin">
-        <color rgb="ffffff"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </left>
       <right style="medium">
-        <color rgb="000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color rgb="ffffff"/>
+        <color rgb="FFffffff"/>
       </left>
       <right style="medium">
-        <color rgb="000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="ffffff"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="000000"/>
+        <color rgb="FFffffff"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
@@ -677,16 +644,16 @@
   </cellStyleXfs>
   <cellXfs count="60">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -695,22 +662,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -719,73 +686,73 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="18" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="21" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="22" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="23" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="24" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -800,10 +767,10 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="25" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="26" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="27" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -812,31 +779,31 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="29" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="30" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="31" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="32" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="2" borderId="33" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -1151,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
@@ -1236,99 +1203,89 @@
         <v>10</v>
       </c>
       <c r="G9" s="51"/>
-      <c r="H9" s="53" t="s">
-        <v>11</v>
-      </c>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="1:8" customHeight="1" ht="20">
       <c r="A10" s="54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="56"/>
       <c r="G10" s="56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:8" customHeight="1" ht="20">
       <c r="A11" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="C11" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="D11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="E11" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="F11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="G11" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="59" t="s">
+    </row>
+    <row r="12" spans="1:8" customHeight="1" ht="20">
+      <c r="A12" s="7"/>
+      <c r="B12" s="10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" customHeight="1" ht="20">
-      <c r="A12" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>25</v>
       </c>
       <c r="F12" s="13"/>
       <c r="G12" s="11">
-        <v>2</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>26</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8" customHeight="1" ht="20">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="8"/>
+      <c r="B13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="3">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>26</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="9"/>
@@ -1342,10 +1299,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="20" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -1398,23 +1355,23 @@
       <c r="A20" s="28"/>
       <c r="B20" s="28"/>
       <c r="C20" s="28" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="28" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" customHeight="1" ht="20">
       <c r="A21" s="33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" s="36"/>
       <c r="C21" s="37"/>
@@ -1426,66 +1383,52 @@
     </row>
     <row r="22" spans="1:8" customHeight="1" ht="20">
       <c r="A22" s="34" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>37</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D22" s="30"/>
       <c r="E22" s="30"/>
-      <c r="F22" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="F22" s="30"/>
       <c r="G22" s="30"/>
-      <c r="H22" s="39" t="s">
-        <v>39</v>
-      </c>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="1:8" customHeight="1" ht="20">
       <c r="A23" s="35" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B23" s="31"/>
-      <c r="C23" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="F23" s="32"/>
       <c r="G23" s="32"/>
-      <c r="H23" s="40" t="s">
-        <v>43</v>
-      </c>
+      <c r="H23" s="40"/>
     </row>
     <row r="24" spans="1:8" customHeight="1" ht="20">
       <c r="A24" s="41" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="43" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E24" s="43"/>
       <c r="F24" s="43" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="44" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="BF63" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="9A93" sheet="true" objects="false" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A10:D10"/>
@@ -1506,7 +1449,7 @@
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
@@ -1515,5 +1458,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <tableParts count="0"/>
 </worksheet>
 </file>